--- a/out/results_2024-06-26.xlsx
+++ b/out/results_2024-06-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4234,6 +4234,99 @@
         <v>144631</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>matrix_n_r</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>63</v>
+      </c>
+      <c r="G124" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>6-6-7</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>matrix_n_r</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>8532</v>
+      </c>
+      <c r="G125" t="n">
+        <v>23658</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>6-6-7</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>matrix_n_r</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>8532</v>
+      </c>
+      <c r="G126" t="n">
+        <v>23658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
